--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="17895" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,10 @@
     <t>speed</t>
   </si>
   <si>
-    <t>special feature</t>
+    <t>range</t>
+  </si>
+  <si>
+    <t>attack speed</t>
   </si>
   <si>
     <t>note</t>
@@ -39,22 +42,77 @@
     <t>player</t>
   </si>
   <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>1.5/second</t>
+  </si>
+  <si>
+    <t>enemyLight</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>regualr</t>
+  </si>
+  <si>
+    <t>1/second</t>
+  </si>
+  <si>
+    <t>行动迅速的轻型装甲坦克，但攻击力偏低</t>
+  </si>
+  <si>
+    <t>enemyHeavy</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>enemyLight</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>enemyHeavy</t>
+    <t>行动迟缓的重型装甲坦克，攻击力较高</t>
   </si>
   <si>
     <t>enemyMiner</t>
   </si>
   <si>
-    <t>放地雷，每隔多少秒，是否距离玩家近才能放</t>
+    <t>very fast</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>0.5/second</t>
+  </si>
+  <si>
+    <t>行动飞快的轻型装甲坦克，没有攻击力但是会在进入玩家攻击范围时开始在车尾放置地雷。每两秒放置一枚。</t>
+  </si>
+  <si>
+    <t>enemeyBarbette(Tower)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>very far</t>
+  </si>
+  <si>
+    <t>无法移动的敌方防御塔，血量高伤害高，攻速低，炮弹飞行速度是普通炮弹2倍，炮弹范围伤害。在射击前会有短暂停顿让玩家有机会躲避。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workshop
+</t>
+  </si>
+  <si>
+    <t>源源不断产出敌方坦克的设施，三秒后没有受到伤害将会以5点血每秒的速度回复血量。将其摧毁后获得本关胜利并且获得三选一的强化奖励。</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>产出敌方坦克的设施，无法被摧毁，产出速度相较于workshop要低。在workshop被摧毁后停止产出坦克。</t>
   </si>
   <si>
     <t>mine</t>
@@ -78,6 +136,27 @@
     <t>group</t>
   </si>
   <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>高爆弹</t>
+  </si>
+  <si>
+    <t>提高50%对轻甲敌人的伤害</t>
+  </si>
+  <si>
+    <t>不可重复选择</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>穿甲弹</t>
+  </si>
+  <si>
+    <t>提高50%对重甲敌人的伤害</t>
+  </si>
+  <si>
     <t>invArmor</t>
   </si>
   <si>
@@ -90,16 +169,88 @@
     <t>暂时不需要</t>
   </si>
   <si>
-    <t>（敌人朝自己射的角度和自身前进方向的夹角大于180°），（内置2秒的cd）</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>穿甲弹</t>
-  </si>
-  <si>
-    <t>提高50%对重甲敌人的伤害</t>
+    <t>（敌人朝自己射的角度和自身前进方向的夹角大于180°），（内置2秒的cd）重复选择：反弹的子弹+1</t>
+  </si>
+  <si>
+    <t>damage up</t>
+  </si>
+  <si>
+    <t>攻击力提高</t>
+  </si>
+  <si>
+    <t>提高15%对所有敌人伤害</t>
+  </si>
+  <si>
+    <t>可重复选择</t>
+  </si>
+  <si>
+    <t>extra cannon</t>
+  </si>
+  <si>
+    <t>额外炮管</t>
+  </si>
+  <si>
+    <t>额外发射一枚子弹</t>
+  </si>
+  <si>
+    <t>每次发射时横向增加一枚子弹，重复选择：子弹+1</t>
+  </si>
+  <si>
+    <t>fast reload</t>
+  </si>
+  <si>
+    <t>快速装填</t>
+  </si>
+  <si>
+    <t>提高15%射击速度</t>
+  </si>
+  <si>
+    <t>running fire</t>
+  </si>
+  <si>
+    <t>连续发射</t>
+  </si>
+  <si>
+    <t>连续发射一次子弹</t>
+  </si>
+  <si>
+    <t>每次发射后，再发射一轮子弹，重复选择：再发射一轮</t>
+  </si>
+  <si>
+    <t>heavy armor</t>
+  </si>
+  <si>
+    <t>重型装甲</t>
+  </si>
+  <si>
+    <t>大幅减伤</t>
+  </si>
+  <si>
+    <t>减少40%所受到的伤害，可重复选择</t>
+  </si>
+  <si>
+    <t>light armor</t>
+  </si>
+  <si>
+    <t>轻型装甲</t>
+  </si>
+  <si>
+    <t>小幅减伤，略微提高移动速度</t>
+  </si>
+  <si>
+    <t>减少25%所受到的伤害，提高20移动速度，可重复选择</t>
+  </si>
+  <si>
+    <t>tilt armor</t>
+  </si>
+  <si>
+    <t>倾斜装甲</t>
+  </si>
+  <si>
+    <t>获得持续三秒的护盾</t>
+  </si>
+  <si>
+    <t>在受到攻击时，获得3秒的护盾，可以抵挡任意方向的子弹</t>
   </si>
   <si>
     <t>长度</t>
@@ -152,44 +303,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -197,7 +364,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,62 +395,60 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -268,49 +456,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,55 +476,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,61 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,12 +626,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,36 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +661,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +684,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,11 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,249 +761,235 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1092,104 +1258,221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="72" customWidth="1"/>
+    <col min="1" max="1" width="23.5714285714286" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="72" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5">
         <v>200</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="27" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>300</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="32" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8">
+        <v>500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="30" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="4">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1201,19 +1484,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="46.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="6.75238095238095" customWidth="1"/>
+    <col min="5" max="5" width="13.247619047619" customWidth="1"/>
+    <col min="6" max="6" width="66.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1221,47 +1505,162 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1279,12 +1678,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6285714285714" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="4" max="4" width="34.6285714285714" customWidth="1"/>
+    <col min="5" max="5" width="64.5047619047619" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1293,69 +1692,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17895" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -202,7 +202,7 @@
     <t>快速装填</t>
   </si>
   <si>
-    <t>提高15%射击速度</t>
+    <t>提高20%射击速度</t>
   </si>
   <si>
     <t>running fire</t>
@@ -253,6 +253,27 @@
     <t>在受到攻击时，获得3秒的护盾，可以抵挡任意方向的子弹</t>
   </si>
   <si>
+    <t>地雷</t>
+  </si>
+  <si>
+    <t>每隔一段时间在身后放置一枚地雷，敌人靠近时引爆</t>
+  </si>
+  <si>
+    <t>可以通过攻击主动引爆，在受到外来伤害后一秒爆炸，可以用来攻击建筑，重复选择：增加威力和范围</t>
+  </si>
+  <si>
+    <t>UAV</t>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <t>召唤一个跟随自己的无人机协助作战</t>
+  </si>
+  <si>
+    <t>伤害：10，速度：very fast，范围：far，攻速：1/second，无人机将会继承装甲类与地雷以外的所有perks</t>
+  </si>
+  <si>
     <t>长度</t>
   </si>
   <si>
@@ -277,25 +298,73 @@
     <t>level2</t>
   </si>
   <si>
-    <t>轻型重型各半，有一个炮塔</t>
-  </si>
-  <si>
-    <t>整体松散，基地附近很密集</t>
+    <t>轻型重型各半，有一个地雷车</t>
+  </si>
+  <si>
+    <t>整体松散，基地附近密集</t>
+  </si>
+  <si>
+    <t>这关过后解锁地雷选项</t>
   </si>
   <si>
     <t>level3</t>
   </si>
   <si>
+    <t>大约2min</t>
+  </si>
+  <si>
+    <t>轻型重型各半，有1个地雷车，一个炮塔</t>
+  </si>
+  <si>
+    <t>整体紧凑，炮塔与基地附近密集</t>
+  </si>
+  <si>
     <t>level4</t>
   </si>
   <si>
+    <t>轻型重型各半，有2个地雷车，一个炮塔，侧面出现一个出兵的山洞</t>
+  </si>
+  <si>
+    <t>整体紧凑，基地附近很密集</t>
+  </si>
+  <si>
+    <t>（地图从此变大）</t>
+  </si>
+  <si>
     <t>level5</t>
   </si>
   <si>
+    <t>大约3min</t>
+  </si>
+  <si>
+    <t>轻型重型各半，有3个地雷车，2个炮塔，一个出兵的山洞</t>
+  </si>
+  <si>
+    <t>整体密集，基地附近很密集</t>
+  </si>
+  <si>
     <t>level6</t>
   </si>
   <si>
+    <t>大约5min</t>
+  </si>
+  <si>
+    <t>重型是轻型一倍，有4个地雷车，两个炮塔，侧面2个山洞，两个基地</t>
+  </si>
+  <si>
+    <t>摧毁两个基地获得胜利，摧毁一个立马可以选择升级，一共可以获得两次升级</t>
+  </si>
+  <si>
     <t>level7</t>
+  </si>
+  <si>
+    <t>重型是轻型一倍，有4个地雷车，两个炮塔，侧面3个山洞，两个基地</t>
+  </si>
+  <si>
+    <t>整体密集，基地附近非常密集</t>
+  </si>
+  <si>
+    <t>摧毁两个基地获得最终胜利，摧毁一个立马可以选择升级</t>
   </si>
 </sst>
 </file>
@@ -303,9 +372,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -317,8 +386,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,37 +417,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +449,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,15 +471,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,26 +508,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,17 +523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,19 +545,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,19 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,73 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,55 +695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +730,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,6 +750,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -699,11 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,17 +798,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,160 +853,154 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -998,6 +1061,348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>831850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="1670050"/>
+          <a:ext cx="2066925" cy="793750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1034415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect r="2727"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="952500"/>
+          <a:ext cx="2066290" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>815975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="2463800"/>
+          <a:ext cx="2080260" cy="789940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="190500"/>
+          <a:ext cx="2066925" cy="774065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1125855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10114915" y="3251200"/>
+          <a:ext cx="1867535" cy="1125855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="4381500"/>
+          <a:ext cx="1866900" cy="1217295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1964055</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="5588000"/>
+          <a:ext cx="1964055" cy="1191260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1024890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="6959600"/>
+          <a:ext cx="1981200" cy="1024890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,25 +1665,25 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.5714285714286" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="72" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="23.5714285714286" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="20" style="5" customWidth="1"/>
+    <col min="7" max="7" width="72" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1297,197 +1702,196 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="60" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>150</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>90</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="63" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5">
         <v>200</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="27" spans="1:7">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>90</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="89" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>300</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1" ht="95" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>500</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="30" spans="1:7">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" ht="93" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>9999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:2">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="9" s="4" customFormat="1"/>
+    <row r="10" ht="81" customHeight="1" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>90</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1501,22 +1905,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1548,20 +1952,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="30" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" ht="30" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1661,6 +2065,34 @@
       </c>
       <c r="F11" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +2107,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1688,73 +2120,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -87,7 +87,7 @@
     <t>0.5/second</t>
   </si>
   <si>
-    <t>行动飞快的轻型装甲坦克，没有攻击力但是会在进入玩家攻击范围时开始在车尾放置地雷。每两秒放置一枚。</t>
+    <t>行动飞快的轻型装甲坦克，没有攻击力但是会在距离玩家较近时开始在车尾放置地雷。每两秒放置一枚。</t>
   </si>
   <si>
     <t>enemeyBarbette(Tower)</t>
@@ -99,7 +99,7 @@
     <t>very far</t>
   </si>
   <si>
-    <t>无法移动的敌方防御塔，血量高伤害高，攻速低，炮弹飞行速度是普通炮弹2倍，炮弹范围伤害。在射击前会有短暂停顿让玩家有机会躲避。</t>
+    <t>无法移动的敌方防御塔，血量高伤害高，攻速低，炮弹飞行速度是普通炮弹2倍，炮弹范围伤害。本身旋转速度较慢（有可视化的反馈），玩家如果绕着移动就无法瞄准，射击强劲，会攻击路径上所有的单位，容易误伤</t>
   </si>
   <si>
     <t xml:space="preserve">workshop
@@ -112,15 +112,15 @@
     <t>cave</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>产出敌方坦克的设施，无法被摧毁，产出速度相较于workshop要低。在workshop被摧毁后停止产出坦克。</t>
   </si>
   <si>
     <t>mine</t>
   </si>
   <si>
-    <t>static</t>
-  </si>
-  <si>
     <t>分为我方和敌方的，都可以被双方的子弹主动激活（被激活后延迟1秒爆炸）</t>
   </si>
   <si>
@@ -136,6 +136,12 @@
     <t>group</t>
   </si>
   <si>
+    <t>unlock</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
     <t>HE</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>不可重复选择</t>
   </si>
   <si>
+    <t>lv1 pass</t>
+  </si>
+  <si>
     <t>AP</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>（敌人朝自己射的角度和自身前进方向的夹角大于180°），（内置2秒的cd）重复选择：反弹的子弹+1</t>
   </si>
   <si>
+    <t>lv4 pass</t>
+  </si>
+  <si>
     <t>damage up</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>可重复选择</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>extra cannon</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>减少40%所受到的伤害，可重复选择</t>
   </si>
   <si>
+    <t>lv5 pass</t>
+  </si>
+  <si>
     <t>light armor</t>
   </si>
   <si>
@@ -253,6 +271,9 @@
     <t>在受到攻击时，获得3秒的护盾，可以抵挡任意方向的子弹</t>
   </si>
   <si>
+    <t>lv2 pass</t>
+  </si>
+  <si>
     <t>地雷</t>
   </si>
   <si>
@@ -262,6 +283,9 @@
     <t>可以通过攻击主动引爆，在受到外来伤害后一秒爆炸，可以用来攻击建筑，重复选择：增加威力和范围</t>
   </si>
   <si>
+    <t>lv3 pass</t>
+  </si>
+  <si>
     <t>UAV</t>
   </si>
   <si>
@@ -274,6 +298,9 @@
     <t>伤害：10，速度：very fast，范围：far，攻速：1/second，无人机将会继承装甲类与地雷以外的所有perks</t>
   </si>
   <si>
+    <t>不可以重复选择，当前的游戏体量下，一共需要选择10次，需要12个选项保证每次都有3个可以展示，目前正好有设计12种，所以游戏最后时，玩家会从12种中获得10种强化</t>
+  </si>
+  <si>
     <t>长度</t>
   </si>
   <si>
@@ -283,6 +310,9 @@
     <t>敌人的数量分布特点</t>
   </si>
   <si>
+    <t>roguelike counts</t>
+  </si>
+  <si>
     <t>level1</t>
   </si>
   <si>
@@ -298,67 +328,70 @@
     <t>level2</t>
   </si>
   <si>
-    <t>轻型重型各半，有一个地雷车</t>
+    <t>轻型重型各半</t>
   </si>
   <si>
     <t>整体松散，基地附近密集</t>
   </si>
   <si>
-    <t>这关过后解锁地雷选项</t>
-  </si>
-  <si>
     <t>level3</t>
   </si>
   <si>
+    <t>轻型重型各半，有1个地雷车</t>
+  </si>
+  <si>
+    <t>level4</t>
+  </si>
+  <si>
     <t>大约2min</t>
   </si>
   <si>
-    <t>轻型重型各半，有1个地雷车，一个炮塔</t>
+    <t>轻型，有3个地雷车，一个炮塔</t>
   </si>
   <si>
     <t>整体紧凑，炮塔与基地附近密集</t>
   </si>
   <si>
-    <t>level4</t>
-  </si>
-  <si>
-    <t>轻型重型各半，有2个地雷车，一个炮塔，侧面出现一个出兵的山洞</t>
+    <t>level5</t>
+  </si>
+  <si>
+    <t>重型，有2个地雷车，一个炮塔</t>
   </si>
   <si>
     <t>整体紧凑，基地附近很密集</t>
   </si>
   <si>
-    <t>（地图从此变大）</t>
-  </si>
-  <si>
-    <t>level5</t>
+    <t>level6</t>
   </si>
   <si>
     <t>大约3min</t>
   </si>
   <si>
-    <t>轻型重型各半，有3个地雷车，2个炮塔，一个出兵的山洞</t>
+    <t>轻型重型各半，有3个地雷车，4个炮塔</t>
   </si>
   <si>
     <t>整体密集，基地附近很密集</t>
   </si>
   <si>
-    <t>level6</t>
+    <t>level7</t>
+  </si>
+  <si>
+    <t>大约4min</t>
+  </si>
+  <si>
+    <t>轻型多重型少，有4个地雷车，两个炮塔，两个基地</t>
+  </si>
+  <si>
+    <t>摧毁两个基地获得胜利，摧毁一个立马可以选择升级，一共可以获得两次升级</t>
+  </si>
+  <si>
+    <t>level8</t>
   </si>
   <si>
     <t>大约5min</t>
   </si>
   <si>
-    <t>重型是轻型一倍，有4个地雷车，两个炮塔，侧面2个山洞，两个基地</t>
-  </si>
-  <si>
-    <t>摧毁两个基地获得胜利，摧毁一个立马可以选择升级，一共可以获得两次升级</t>
-  </si>
-  <si>
-    <t>level7</t>
-  </si>
-  <si>
-    <t>重型是轻型一倍，有4个地雷车，两个炮塔，侧面3个山洞，两个基地</t>
+    <t>重型多轻型少，有8个地雷车，4个炮塔，3个基地</t>
   </si>
   <si>
     <t>整体密集，基地附近非常密集</t>
@@ -372,53 +405,75 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -426,22 +481,62 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -449,83 +544,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -545,13 +578,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,103 +686,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,55 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,41 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -801,8 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,157 +828,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,9 +1024,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,55 +1034,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1093,8 +1123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="1670050"/>
-          <a:ext cx="2066925" cy="793750"/>
+          <a:off x="11550015" y="1651000"/>
+          <a:ext cx="2362200" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,7 +1166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="952500"/>
+          <a:off x="11550015" y="933450"/>
           <a:ext cx="2066290" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,8 +1208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="2463800"/>
-          <a:ext cx="2080260" cy="789940"/>
+          <a:off x="11550015" y="2444750"/>
+          <a:ext cx="2375535" cy="789940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,8 +1250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="190500"/>
-          <a:ext cx="2066925" cy="774065"/>
+          <a:off x="11550015" y="171450"/>
+          <a:ext cx="2362200" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,7 +1292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10114915" y="3251200"/>
+          <a:off x="11558905" y="3232150"/>
           <a:ext cx="1867535" cy="1125855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1304,7 +1334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="4381500"/>
+          <a:off x="11550015" y="4362450"/>
           <a:ext cx="1866900" cy="1217295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1346,7 +1376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="5588000"/>
+          <a:off x="11550015" y="5568950"/>
           <a:ext cx="1964055" cy="1191260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1388,7 +1418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="6959600"/>
+          <a:off x="11550015" y="6921500"/>
           <a:ext cx="1981200" cy="1024890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1665,216 +1695,216 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.5714285714286" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="20" style="5" customWidth="1"/>
-    <col min="7" max="7" width="72" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="23.575" style="4" customWidth="1"/>
+    <col min="2" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="72" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>150</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>90</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="63" customHeight="1" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="63" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5">
-        <v>200</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="89" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>300</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="95" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3">
+        <v>900</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="93" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" ht="81" customHeight="1" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
         <v>90</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="89" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>300</v>
-      </c>
-      <c r="C6" s="4">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>500</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="93" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9999999</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1"/>
-    <row r="10" ht="81" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1888,23 +1918,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="46.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="6.75238095238095" customWidth="1"/>
-    <col min="5" max="5" width="13.247619047619" customWidth="1"/>
-    <col min="6" max="6" width="66.1238095238095" customWidth="1"/>
+    <col min="1" max="1" width="12.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="66.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1923,176 +1953,232 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="30" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>84</v>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2104,146 +2190,241 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="12.6285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.6285714285714" customWidth="1"/>
-    <col min="5" max="5" width="64.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="64.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="42" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>100</v>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="43.5" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A7" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="43.5" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A8" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="9795" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,10 @@
     <t>减少25%所受到的伤害，提高20移动速度，可重复选择</t>
   </si>
   <si>
-    <t>tilt armor</t>
-  </si>
-  <si>
-    <t>倾斜装甲</t>
+    <t>energy armor</t>
+  </si>
+  <si>
+    <t>能量装甲</t>
   </si>
   <si>
     <t>获得持续三秒的护盾</t>
@@ -406,43 +406,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -450,7 +443,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -458,22 +458,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -481,7 +489,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -489,7 +497,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -497,23 +505,37 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -521,22 +543,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -544,21 +558,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -578,25 +578,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,25 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,121 +710,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,6 +781,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -792,15 +816,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,21 +844,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -868,148 +868,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,55 +1034,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1123,8 +1123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="1651000"/>
-          <a:ext cx="2362200" cy="793750"/>
+          <a:off x="10106025" y="1670050"/>
+          <a:ext cx="2066925" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,7 +1166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="933450"/>
+          <a:off x="10106025" y="952500"/>
           <a:ext cx="2066290" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,8 +1208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="2444750"/>
-          <a:ext cx="2375535" cy="789940"/>
+          <a:off x="10106025" y="2463800"/>
+          <a:ext cx="2080260" cy="789940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,8 +1250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="171450"/>
-          <a:ext cx="2362200" cy="774065"/>
+          <a:off x="10106025" y="190500"/>
+          <a:ext cx="2066925" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1292,7 +1292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11558905" y="3232150"/>
+          <a:off x="10114915" y="3251200"/>
           <a:ext cx="1867535" cy="1125855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1334,7 +1334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="4362450"/>
+          <a:off x="10106025" y="4381500"/>
           <a:ext cx="1866900" cy="1217295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1376,7 +1376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="5568950"/>
+          <a:off x="10106025" y="5588000"/>
           <a:ext cx="1964055" cy="1191260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1418,7 +1418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11550015" y="6921500"/>
+          <a:off x="10106025" y="6959600"/>
           <a:ext cx="1981200" cy="1024890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1699,9 +1699,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.575" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.5714285714286" style="4" customWidth="1"/>
     <col min="2" max="5" width="9" style="4"/>
     <col min="6" max="6" width="20" style="4" customWidth="1"/>
     <col min="7" max="7" width="72" style="4" customWidth="1"/>
@@ -1921,17 +1921,17 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.2833333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="46.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="6.75238095238095" customWidth="1"/>
+    <col min="5" max="5" width="13.247619047619" customWidth="1"/>
+    <col min="6" max="6" width="66.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1994,7 +1994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="27" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -2196,13 +2196,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6285714285714" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="64.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="34.6285714285714" customWidth="1"/>
+    <col min="5" max="5" width="64.5047619047619" customWidth="1"/>
+    <col min="6" max="6" width="17.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2255,7 +2255,6 @@
       <c r="D3" t="s">
         <v>104</v>
       </c>
-      <c r="E3"/>
       <c r="F3">
         <v>2</v>
       </c>
@@ -2291,7 +2290,6 @@
       <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>4</v>
       </c>
@@ -2309,12 +2307,11 @@
       <c r="D6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:6">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -2327,12 +2324,11 @@
       <c r="D7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:6">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:6">
+    <row r="9" ht="30" spans="1:6">
       <c r="A9" t="s">
         <v>122</v>
       </c>

--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9795" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -133,28 +133,19 @@
     <t>icon</t>
   </si>
   <si>
-    <t>group</t>
+    <t>base</t>
   </si>
   <si>
     <t>unlock</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
     <t>高爆弹</t>
   </si>
   <si>
-    <t>提高50%对轻甲敌人的伤害</t>
-  </si>
-  <si>
-    <t>不可重复选择</t>
-  </si>
-  <si>
-    <t>lv1 pass</t>
+    <t>提高150%对轻甲敌人的伤害</t>
   </si>
   <si>
     <t>AP</t>
@@ -163,7 +154,7 @@
     <t>穿甲弹</t>
   </si>
   <si>
-    <t>提高50%对重甲敌人的伤害</t>
+    <t>提高150%对重甲敌人的伤害</t>
   </si>
   <si>
     <t>invArmor</t>
@@ -172,34 +163,28 @@
     <t>反向装甲</t>
   </si>
   <si>
-    <t>偶尔可以把敌人射向自己的子弹反弹攻击敌人</t>
-  </si>
-  <si>
-    <t>暂时不需要</t>
-  </si>
-  <si>
-    <t>（敌人朝自己射的角度和自身前进方向的夹角大于180°），（内置2秒的cd）重复选择：反弹的子弹+1</t>
-  </si>
-  <si>
-    <t>lv4 pass</t>
-  </si>
-  <si>
-    <t>damage up</t>
+    <t>偶尔可以把敌人射向自己的子弹反弹攻击敌人（内置5s 冷却）</t>
+  </si>
+  <si>
+    <t>（敌人朝自己射的角度和自身前进方向的夹角大于180°）</t>
+  </si>
+  <si>
+    <t>DamageUp1</t>
   </si>
   <si>
     <t>攻击力提高</t>
   </si>
   <si>
-    <t>提高15%对所有敌人伤害</t>
-  </si>
-  <si>
-    <t>可重复选择</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>extra cannon</t>
+    <t>提高50%对所有敌人伤害</t>
+  </si>
+  <si>
+    <t>DamageUp2</t>
+  </si>
+  <si>
+    <t>ExtraCannon1</t>
+  </si>
+  <si>
+    <t>ExtraCannon2</t>
   </si>
   <si>
     <t>额外炮管</t>
@@ -208,31 +193,25 @@
     <t>额外发射一枚子弹</t>
   </si>
   <si>
-    <t>每次发射时横向增加一枚子弹，重复选择：子弹+1</t>
-  </si>
-  <si>
-    <t>fast reload</t>
-  </si>
-  <si>
-    <t>快速装填</t>
-  </si>
-  <si>
-    <t>提高20%射击速度</t>
-  </si>
-  <si>
-    <t>running fire</t>
+    <t>每次发射时增加一枚子弹，重复选择：子弹+1</t>
+  </si>
+  <si>
+    <t>RunningFire1</t>
+  </si>
+  <si>
+    <t>RunningFire2</t>
   </si>
   <si>
     <t>连续发射</t>
   </si>
   <si>
-    <t>连续发射一次子弹</t>
+    <t>连续发射一轮子弹（内置5s 冷却）</t>
   </si>
   <si>
     <t>每次发射后，再发射一轮子弹，重复选择：再发射一轮</t>
   </si>
   <si>
-    <t>heavy armor</t>
+    <t>HeavyArmor</t>
   </si>
   <si>
     <t>重型装甲</t>
@@ -244,10 +223,7 @@
     <t>减少40%所受到的伤害，可重复选择</t>
   </si>
   <si>
-    <t>lv5 pass</t>
-  </si>
-  <si>
-    <t>light armor</t>
+    <t>LightArmor</t>
   </si>
   <si>
     <t>轻型装甲</t>
@@ -265,15 +241,12 @@
     <t>能量装甲</t>
   </si>
   <si>
-    <t>获得持续三秒的护盾</t>
+    <t>获得持续三秒的护盾（内置20s 冷却）</t>
   </si>
   <si>
     <t>在受到攻击时，获得3秒的护盾，可以抵挡任意方向的子弹</t>
   </si>
   <si>
-    <t>lv2 pass</t>
-  </si>
-  <si>
     <t>地雷</t>
   </si>
   <si>
@@ -283,22 +256,25 @@
     <t>可以通过攻击主动引爆，在受到外来伤害后一秒爆炸，可以用来攻击建筑，重复选择：增加威力和范围</t>
   </si>
   <si>
-    <t>lv3 pass</t>
-  </si>
-  <si>
-    <t>UAV</t>
-  </si>
-  <si>
-    <t>无人机</t>
-  </si>
-  <si>
-    <t>召唤一个跟随自己的无人机协助作战</t>
+    <t>UAV1</t>
+  </si>
+  <si>
+    <t>无人机1</t>
+  </si>
+  <si>
+    <t>召唤1个跟随自己的无人机协助作战</t>
   </si>
   <si>
     <t>伤害：10，速度：very fast，范围：far，攻速：1/second，无人机将会继承装甲类与地雷以外的所有perks</t>
   </si>
   <si>
-    <t>不可以重复选择，当前的游戏体量下，一共需要选择10次，需要12个选项保证每次都有3个可以展示，目前正好有设计12种，所以游戏最后时，玩家会从12种中获得10种强化</t>
+    <t>UAV2</t>
+  </si>
+  <si>
+    <t>无人机2</t>
+  </si>
+  <si>
+    <t>召唤2个跟随自己的无人机协助作战</t>
   </si>
   <si>
     <t>长度</t>
@@ -406,36 +382,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -443,14 +426,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -458,7 +434,70 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -466,91 +505,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -558,7 +520,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -578,19 +554,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,31 +680,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,121 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,30 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -816,6 +768,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +805,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -868,148 +844,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,55 +1010,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1123,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="1670050"/>
-          <a:ext cx="2066925" cy="793750"/>
+          <a:off x="11550015" y="1651000"/>
+          <a:ext cx="2362200" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,7 +1142,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="952500"/>
+          <a:off x="11550015" y="933450"/>
           <a:ext cx="2066290" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,8 +1184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="2463800"/>
-          <a:ext cx="2080260" cy="789940"/>
+          <a:off x="11550015" y="2444750"/>
+          <a:ext cx="2375535" cy="789940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,8 +1226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="190500"/>
-          <a:ext cx="2066925" cy="774065"/>
+          <a:off x="11550015" y="171450"/>
+          <a:ext cx="2362200" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1292,7 +1268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10114915" y="3251200"/>
+          <a:off x="11558905" y="3232150"/>
           <a:ext cx="1867535" cy="1125855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1334,7 +1310,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="4381500"/>
+          <a:off x="11550015" y="4362450"/>
           <a:ext cx="1866900" cy="1217295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1376,7 +1352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="5588000"/>
+          <a:off x="11550015" y="5568950"/>
           <a:ext cx="1964055" cy="1191260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1418,7 +1394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="6959600"/>
+          <a:off x="11550015" y="6921500"/>
           <a:ext cx="1981200" cy="1024890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1696,12 +1672,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.5714285714286" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.575" style="4" customWidth="1"/>
     <col min="2" max="5" width="9" style="4"/>
     <col min="6" max="6" width="20" style="4" customWidth="1"/>
     <col min="7" max="7" width="72" style="4" customWidth="1"/>
@@ -1918,23 +1894,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="46.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="6.75238095238095" customWidth="1"/>
-    <col min="5" max="5" width="13.247619047619" customWidth="1"/>
-    <col min="6" max="6" width="66.1238095238095" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="56.25" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="66.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1956,229 +1932,239 @@
       <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
+      <c r="G2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>93</v>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2196,13 +2182,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="12.6285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.6285714285714" customWidth="1"/>
-    <col min="5" max="5" width="64.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="17.8761904761905" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="64.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2210,33 +2196,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2244,16 +2230,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2261,16 +2247,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="1">
@@ -2279,16 +2265,16 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -2296,73 +2282,73 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:6">
+    <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>11</v>

--- a/坦克游戏配置.xlsx
+++ b/坦克游戏配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
     <t>unlock</t>
   </si>
   <si>
+    <t>done</t>
+  </si>
+  <si>
     <t>HE</t>
   </si>
   <si>
@@ -157,7 +160,7 @@
     <t>提高150%对重甲敌人的伤害</t>
   </si>
   <si>
-    <t>invArmor</t>
+    <t>InvArmor</t>
   </si>
   <si>
     <t>反向装甲</t>
@@ -199,13 +202,16 @@
     <t>RunningFire1</t>
   </si>
   <si>
+    <t>连续发射1轮子弹（内置5s 冷却）</t>
+  </si>
+  <si>
     <t>RunningFire2</t>
   </si>
   <si>
     <t>连续发射</t>
   </si>
   <si>
-    <t>连续发射一轮子弹（内置5s 冷却）</t>
+    <t>连续发射2轮子弹（内置5s 冷却）</t>
   </si>
   <si>
     <t>每次发射后，再发射一轮子弹，重复选择：再发射一轮</t>
@@ -235,16 +241,16 @@
     <t>减少25%所受到的伤害，提高20移动速度，可重复选择</t>
   </si>
   <si>
-    <t>energy armor</t>
-  </si>
-  <si>
-    <t>能量装甲</t>
+    <t>EnergyShield</t>
   </si>
   <si>
     <t>获得持续三秒的护盾（内置20s 冷却）</t>
   </si>
   <si>
     <t>在受到攻击时，获得3秒的护盾，可以抵挡任意方向的子弹</t>
+  </si>
+  <si>
+    <t>Mine</t>
   </si>
   <si>
     <t>地雷</t>
@@ -539,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,16 +871,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,10 +892,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,28 +916,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -934,21 +946,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,38 +967,41 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1010,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1677,210 +1692,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.575" style="4" customWidth="1"/>
-    <col min="2" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="72" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="23.575" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="20" style="5" customWidth="1"/>
+    <col min="7" max="7" width="72" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>150</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>90</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="63" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>200</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>90</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="89" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="89" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>300</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1" ht="95" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>900</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="93" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" ht="93" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1"/>
+    <row r="9" s="4" customFormat="1"/>
     <row r="10" ht="81" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>90</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1894,23 +1909,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="56.25" customWidth="1"/>
     <col min="4" max="4" width="6.75" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="66.125" customWidth="1"/>
+    <col min="6" max="6" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1932,16 +1947,19 @@
       <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1949,13 +1967,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1963,120 +1981,129 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -2084,16 +2111,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -2101,16 +2128,14 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B13"/>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2118,16 +2143,16 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2135,16 +2160,16 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2152,16 +2177,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2196,33 +2221,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2230,16 +2255,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2247,16 +2272,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="1">
@@ -2265,16 +2290,16 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -2282,16 +2307,16 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -2299,16 +2324,16 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -2316,19 +2341,19 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -2336,19 +2361,19 @@
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>11</v>
